--- a/sku-maps/csv/xls/Middleware Data Breakdown.xlsx
+++ b/sku-maps/csv/xls/Middleware Data Breakdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkelly\github\sku-calc\sku-maps\csv\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CF631E5-85C4-4E68-96EE-776E4A402FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{800ED0D9-9C82-406B-A54A-88E72268B1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11550" yWindow="90" windowWidth="14265" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="b">
-        <f>OR(ISNUMBER(SEARCH("ELS",B2)),ISNUMBER(SEARCH("Extended Lifecycle",B2)))</f>
+        <f>OR(ISNUMBER(SEARCH("ELS",B2)),ISNUMBER(SEARCH("Extended Lifecycle",B2)),ISNUMBER(SEARCH("Extended Life Cycle",B2)))</f>
         <v>0</v>
       </c>
       <c r="F2" s="4" t="b">
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="b">
-        <f t="shared" ref="E3:E66" si="2">OR(ISNUMBER(SEARCH("ELS",B3)),ISNUMBER(SEARCH("Extended Lifecycle",B3)))</f>
+        <f t="shared" ref="E3:E66" si="2">OR(ISNUMBER(SEARCH("ELS",B3)),ISNUMBER(SEARCH("Extended Lifecycle",B3)),ISNUMBER(SEARCH("Extended Life Cycle",B3)))</f>
         <v>0</v>
       </c>
       <c r="F3" s="4" t="b">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="E11" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4" t="b">
         <f t="shared" si="3"/>
@@ -7963,7 +7963,7 @@
       </c>
       <c r="E53" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4" t="b">
         <f t="shared" si="3"/>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="E54" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="4" t="b">
         <f t="shared" si="3"/>
@@ -9403,7 +9403,7 @@
       </c>
       <c r="E66" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="4" t="b">
         <f t="shared" si="3"/>
@@ -9510,7 +9510,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="4" t="b">
-        <f t="shared" ref="E67:E130" si="20">OR(ISNUMBER(SEARCH("ELS",B67)),ISNUMBER(SEARCH("Extended Lifecycle",B67)))</f>
+        <f t="shared" ref="E67:E130" si="20">OR(ISNUMBER(SEARCH("ELS",B67)),ISNUMBER(SEARCH("Extended Lifecycle",B67)),ISNUMBER(SEARCH("Extended Life Cycle",B67)))</f>
         <v>0</v>
       </c>
       <c r="F67" s="4" t="b">
@@ -12941,7 +12941,7 @@
       </c>
       <c r="E97" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="4" t="b">
         <f t="shared" si="21"/>
@@ -13051,7 +13051,7 @@
       </c>
       <c r="E98" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" s="4" t="b">
         <f t="shared" si="21"/>
@@ -14607,7 +14607,7 @@
       </c>
       <c r="E112" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" s="4" t="b">
         <f t="shared" si="21"/>
@@ -14715,7 +14715,7 @@
       </c>
       <c r="E113" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" s="4" t="b">
         <f t="shared" si="21"/>
@@ -16744,7 +16744,7 @@
         <v>1</v>
       </c>
       <c r="E131" s="4" t="b">
-        <f t="shared" ref="E131:E163" si="37">OR(ISNUMBER(SEARCH("ELS",B131)),ISNUMBER(SEARCH("Extended Lifecycle",B131)))</f>
+        <f t="shared" ref="E131:E163" si="37">OR(ISNUMBER(SEARCH("ELS",B131)),ISNUMBER(SEARCH("Extended Lifecycle",B131)),ISNUMBER(SEARCH("Extended Life Cycle",B131)))</f>
         <v>0</v>
       </c>
       <c r="F131" s="4" t="b">

--- a/sku-maps/csv/xls/Middleware Data Breakdown.xlsx
+++ b/sku-maps/csv/xls/Middleware Data Breakdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkelly\github\sku-calc\sku-maps\csv\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{800ED0D9-9C82-406B-A54A-88E72268B1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAA8795E-4C6A-40E3-808A-8C5ECC6C50C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11550" yWindow="90" windowWidth="14265" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E163"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2160,11 +2160,11 @@
         <v>0</v>
       </c>
       <c r="F2" s="4" t="b">
-        <f>OR(ISNUMBER( SEARCH("3scale",B2)),R2=TRUE)</f>
+        <f>OR(ISNUMBER( SEARCH("3scale",B2)),R2=TRUE, P2=TRUE)</f>
         <v>1</v>
       </c>
       <c r="G2" s="1" t="b">
-        <f>OR(ISNUMBER( SEARCH("AMQ",B2)),R2=TRUE)</f>
+        <f>OR(ISNUMBER( SEARCH("AMQ",B2)),R2=TRUE,P2=TRUE)</f>
         <v>0</v>
       </c>
       <c r="H2" s="1" t="b">
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="b">
-        <f>OR(ISNUMBER( SEARCH("Fuse",B2)),R2=TRUE)</f>
+        <f>OR(ISNUMBER( SEARCH("Fuse",B2)),R2=TRUE,P2=TRUE)</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="b">
@@ -2276,11 +2276,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="b">
-        <f t="shared" ref="F3:F66" si="3">OR(ISNUMBER( SEARCH("3scale",B3)),R3=TRUE)</f>
+        <f t="shared" ref="F3:F66" si="3">OR(ISNUMBER( SEARCH("3scale",B3)),R3=TRUE, P3=TRUE)</f>
         <v>1</v>
       </c>
       <c r="G3" s="1" t="b">
-        <f t="shared" ref="G3:G66" si="4">OR(ISNUMBER( SEARCH("AMQ",B3)),R3=TRUE)</f>
+        <f t="shared" ref="G3:G66" si="4">OR(ISNUMBER( SEARCH("AMQ",B3)),R3=TRUE,P3=TRUE)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1" t="b">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="b">
-        <f t="shared" ref="I3:I66" si="6">OR(ISNUMBER( SEARCH("Fuse",B3)),R3=TRUE)</f>
+        <f t="shared" ref="I3:I66" si="6">OR(ISNUMBER( SEARCH("Fuse",B3)),R3=TRUE,P3=TRUE)</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="b">
@@ -9514,11 +9514,11 @@
         <v>0</v>
       </c>
       <c r="F67" s="4" t="b">
-        <f t="shared" ref="F67:F130" si="21">OR(ISNUMBER( SEARCH("3scale",B67)),R67=TRUE)</f>
+        <f t="shared" ref="F67:F130" si="21">OR(ISNUMBER( SEARCH("3scale",B67)),R67=TRUE, P67=TRUE)</f>
         <v>0</v>
       </c>
       <c r="G67" s="1" t="b">
-        <f t="shared" ref="G67:G130" si="22">OR(ISNUMBER( SEARCH("AMQ",B67)),R67=TRUE)</f>
+        <f t="shared" ref="G67:G130" si="22">OR(ISNUMBER( SEARCH("AMQ",B67)),R67=TRUE,P67=TRUE)</f>
         <v>0</v>
       </c>
       <c r="H67" s="1" t="b">
@@ -9526,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="1" t="b">
-        <f t="shared" ref="I67:I130" si="24">OR(ISNUMBER( SEARCH("Fuse",B67)),R67=TRUE)</f>
+        <f t="shared" ref="I67:I130" si="24">OR(ISNUMBER( SEARCH("Fuse",B67)),R67=TRUE,P67=TRUE)</f>
         <v>1</v>
       </c>
       <c r="J67" s="1" t="b">
@@ -11343,11 +11343,11 @@
       </c>
       <c r="F83" s="4" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="1" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="1" t="b">
         <f t="shared" si="23"/>
@@ -11355,7 +11355,7 @@
       </c>
       <c r="I83" s="1" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" s="1" t="b">
         <f t="shared" si="25"/>
@@ -11459,11 +11459,11 @@
       </c>
       <c r="F84" s="4" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="1" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="1" t="b">
         <f t="shared" si="23"/>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="I84" s="1" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" s="1" t="b">
         <f t="shared" si="25"/>
@@ -11575,11 +11575,11 @@
       </c>
       <c r="F85" s="4" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="1" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" s="1" t="b">
         <f t="shared" si="23"/>
@@ -11587,7 +11587,7 @@
       </c>
       <c r="I85" s="1" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" s="1" t="b">
         <f t="shared" si="25"/>
@@ -11691,11 +11691,11 @@
       </c>
       <c r="F86" s="4" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="1" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" s="1" t="b">
         <f t="shared" si="23"/>
@@ -11703,7 +11703,7 @@
       </c>
       <c r="I86" s="1" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" s="1" t="b">
         <f t="shared" si="25"/>
@@ -11807,11 +11807,11 @@
       </c>
       <c r="F87" s="4" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="1" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" s="1" t="b">
         <f t="shared" si="23"/>
@@ -11819,7 +11819,7 @@
       </c>
       <c r="I87" s="1" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" s="1" t="b">
         <f t="shared" si="25"/>
@@ -11923,11 +11923,11 @@
       </c>
       <c r="F88" s="4" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="1" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" s="1" t="b">
         <f t="shared" si="23"/>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="I88" s="1" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" s="1" t="b">
         <f t="shared" si="25"/>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="F89" s="4" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="1" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" s="1" t="b">
         <f t="shared" si="23"/>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="I89" s="1" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" s="1" t="b">
         <f t="shared" si="25"/>
@@ -12153,11 +12153,11 @@
       </c>
       <c r="F90" s="4" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="1" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" s="1" t="b">
         <f t="shared" si="23"/>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="I90" s="1" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" s="1" t="b">
         <f t="shared" si="25"/>
@@ -12267,11 +12267,11 @@
       </c>
       <c r="F91" s="4" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="1" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" s="1" t="b">
         <f t="shared" si="23"/>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="I91" s="1" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" s="1" t="b">
         <f t="shared" si="25"/>
@@ -12381,11 +12381,11 @@
       </c>
       <c r="F92" s="4" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="1" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" s="1" t="b">
         <f t="shared" si="23"/>
@@ -12393,7 +12393,7 @@
       </c>
       <c r="I92" s="1" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" s="1" t="b">
         <f t="shared" si="25"/>
@@ -12495,11 +12495,11 @@
       </c>
       <c r="F93" s="4" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="1" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" s="1" t="b">
         <f t="shared" si="23"/>
@@ -12507,7 +12507,7 @@
       </c>
       <c r="I93" s="1" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="1" t="b">
         <f t="shared" si="25"/>
@@ -12609,11 +12609,11 @@
       </c>
       <c r="F94" s="4" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="1" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="1" t="b">
         <f t="shared" si="23"/>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="I94" s="1" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="1" t="b">
         <f t="shared" si="25"/>
@@ -16748,11 +16748,11 @@
         <v>0</v>
       </c>
       <c r="F131" s="4" t="b">
-        <f t="shared" ref="F131:F163" si="38">OR(ISNUMBER( SEARCH("3scale",B131)),R131=TRUE)</f>
+        <f t="shared" ref="F131:F163" si="38">OR(ISNUMBER( SEARCH("3scale",B131)),R131=TRUE, P131=TRUE)</f>
         <v>0</v>
       </c>
       <c r="G131" s="1" t="b">
-        <f t="shared" ref="G131:G163" si="39">OR(ISNUMBER( SEARCH("AMQ",B131)),R131=TRUE)</f>
+        <f t="shared" ref="G131:G163" si="39">OR(ISNUMBER( SEARCH("AMQ",B131)),R131=TRUE,P131=TRUE)</f>
         <v>0</v>
       </c>
       <c r="H131" s="1" t="b">
@@ -16760,7 +16760,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="1" t="b">
-        <f t="shared" ref="I131:I163" si="41">OR(ISNUMBER( SEARCH("Fuse",B131)),R131=TRUE)</f>
+        <f t="shared" ref="I131:I163" si="41">OR(ISNUMBER( SEARCH("Fuse",B131)),R131=TRUE,P131=TRUE)</f>
         <v>0</v>
       </c>
       <c r="J131" s="1" t="b">
